--- a/議事録/議事録.xlsx
+++ b/議事録/議事録.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuta2\Pictures\日本ゲーム大賞2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuta2\Pictures\日本ゲーム大賞2023_Share\議事録\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DC2379-64C6-46E6-876D-7DCABA6B7E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3036FFD2-29B7-45F0-ABFC-3F3E09A1C029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4E9DEE91-4CB2-4732-891F-8D8E6B146D54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E9DEE91-4CB2-4732-891F-8D8E6B146D54}"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
-    <sheet name="○月○日_議事録" sheetId="2" r:id="rId2"/>
+    <sheet name="2月3日_議事録" sheetId="3" r:id="rId1"/>
+    <sheet name="Template" sheetId="1" r:id="rId2"/>
+    <sheet name="○月○日_議事録" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
   <si>
     <t>メンバー</t>
     <phoneticPr fontId="1"/>
@@ -160,6 +161,218 @@
   </si>
   <si>
     <t>Alt + ↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>五木田君</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓未出席者</t>
+    <rPh sb="1" eb="5">
+      <t>ミシュッセキシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Miroに入って、これからやること見てください。</t>
+    <rPh sb="5" eb="6">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後藤先生から合格を貰えるアイデア3つ出す
+今日中に出せば、土日に仙頭くんが店に行ってくれる</t>
+    <rPh sb="0" eb="4">
+      <t>ゴトウセンセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゴウカク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モラ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>キョウジュウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ドニチ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ミセ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日曜日までに、Miroにチーム名出す
+ブレストした内容から思いついたものを一つ以上Miroにはる
+月曜日チーム名の案にリアクションをつける</t>
+    <rPh sb="0" eb="3">
+      <t>ニチヨウビ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>ゲツヨウビ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://miro.com/app/board/uXjVPsYCNdc=/?moveToWidget=3458764545165382088&amp;cot=14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓Miroリンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これからブレスト。ブレストに関して何か。</t>
+    <rPh sb="14" eb="15">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人によってこだわりは違う。
+ある要素を作るには、どう作るか？</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好きなゲーム作って部分的にこだわりたい。</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ブブンテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3Dゲームにしたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容をこだわるのか、「こだわり」から何か連想させるのか？ーー＞今はどっちでも</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>レンソウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>イマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意見</t>
+    <rPh sb="0" eb="2">
+      <t>イケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だれか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製作者の癖</t>
+    <rPh sb="0" eb="3">
+      <t>セイサクシャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヘキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンダーテイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とりあえず、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のミーティングはどうするか</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一旦先生に見せてから</t>
+    <rPh sb="0" eb="2">
+      <t>イッタン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -167,7 +380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +402,15 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -225,12 +447,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,8 +471,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -557,13 +789,266 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAC6669-DC7D-4BC2-A7F9-1174ECB66F45}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="12.19921875" customWidth="1"/>
+    <col min="3" max="3" width="43.8984375" customWidth="1"/>
+    <col min="4" max="4" width="24.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="72" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C26" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{30A978D3-7F58-439B-91F3-78201591AB8D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B1EC19-82DB-40C8-A60C-BB0DD93DAEB4}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -679,11 +1164,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D1321-3527-489D-9897-5F125E364B1D}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
